--- a/SalesProcess.xlsx
+++ b/SalesProcess.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -223,7 +223,7 @@
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2.TestCase_2</x:t>
+    <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Lead to Oppturnity</x:t>
@@ -275,6 +275,45 @@
   </x:si>
   <x:si>
     <x:t>User Should be able to click on the Sales</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Shoud be able to click on the Tabs Frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Next Stage Purpose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Shoud be able to click on the Next Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Identify Sales Team</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Shoud be able to click on the Identify Sales Team</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Next Stage Close</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Finish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Should be able to click on the Finish</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -358,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K36" totalsRowShown="0">
-  <x:autoFilter ref="A1:K36"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K41" totalsRowShown="0">
+  <x:autoFilter ref="A1:K41"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -665,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K36"/>
+  <x:dimension ref="A1:K41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -678,7 +717,7 @@
     <x:col min="5" max="5" width="33.980625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="33.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="48.980625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="50.130625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -1407,6 +1446,101 @@
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
       <x:c r="K36" s="0" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:11">
+      <x:c r="A37" s="0" t="s"/>
+      <x:c r="B37" s="0" t="s"/>
+      <x:c r="C37" s="0" t="s"/>
+      <x:c r="D37" s="0" t="s"/>
+      <x:c r="E37" s="0" t="s"/>
+      <x:c r="F37" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s"/>
+      <x:c r="J37" s="0" t="s"/>
+      <x:c r="K37" s="0" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:11">
+      <x:c r="A38" s="0" t="s"/>
+      <x:c r="B38" s="0" t="s"/>
+      <x:c r="C38" s="0" t="s"/>
+      <x:c r="D38" s="0" t="s"/>
+      <x:c r="E38" s="0" t="s"/>
+      <x:c r="F38" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s"/>
+      <x:c r="J38" s="0" t="s"/>
+      <x:c r="K38" s="0" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:11">
+      <x:c r="A39" s="0" t="s"/>
+      <x:c r="B39" s="0" t="s"/>
+      <x:c r="C39" s="0" t="s"/>
+      <x:c r="D39" s="0" t="s"/>
+      <x:c r="E39" s="0" t="s"/>
+      <x:c r="F39" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s"/>
+      <x:c r="J39" s="0" t="s"/>
+      <x:c r="K39" s="0" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:11">
+      <x:c r="A40" s="0" t="s"/>
+      <x:c r="B40" s="0" t="s"/>
+      <x:c r="C40" s="0" t="s"/>
+      <x:c r="D40" s="0" t="s"/>
+      <x:c r="E40" s="0" t="s"/>
+      <x:c r="F40" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s"/>
+      <x:c r="J40" s="0" t="s"/>
+      <x:c r="K40" s="0" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:11">
+      <x:c r="A41" s="0" t="s"/>
+      <x:c r="B41" s="0" t="s"/>
+      <x:c r="C41" s="0" t="s"/>
+      <x:c r="D41" s="0" t="s"/>
+      <x:c r="E41" s="0" t="s"/>
+      <x:c r="F41" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s"/>
+      <x:c r="J41" s="0" t="s"/>
+      <x:c r="K41" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
